--- a/company_data/calisanlar.xlsx
+++ b/company_data/calisanlar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erdenay.karatas\Desktop\mcp-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erdenay.karatas\Desktop\mcp-project\company_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3A93ED-ED6B-4E0F-B8B6-40DDB22B5288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5F612E-C46D-4AA9-AC7E-DBE15B2A330A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4877" yWindow="9180" windowWidth="26486" windowHeight="15891" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="3720" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Erdenay Karataş</t>
   </si>
   <si>
-    <t>IT</t>
-  </si>
-  <si>
     <t>Simge Erdoğan</t>
   </si>
   <si>
@@ -91,6 +88,57 @@
   </si>
   <si>
     <t>Ürün Yönetimi Müdürü</t>
+  </si>
+  <si>
+    <t>Tahir Karakaş</t>
+  </si>
+  <si>
+    <t>Bilgi İşlem Müdürü</t>
+  </si>
+  <si>
+    <t>Bilgi İşlem</t>
+  </si>
+  <si>
+    <t>tahir.karakas@barcin.com</t>
+  </si>
+  <si>
+    <t>Erdinç Cengiz</t>
+  </si>
+  <si>
+    <t>Bilgi İşlem Yöneticisi</t>
+  </si>
+  <si>
+    <t>erdinc.cengiz@barcin.com</t>
+  </si>
+  <si>
+    <t>Tuğba Saraçoğlu</t>
+  </si>
+  <si>
+    <t>Muhasebe Şefi</t>
+  </si>
+  <si>
+    <t>tugba.saracoglu@barcin.com</t>
+  </si>
+  <si>
+    <t>Tugce Tek</t>
+  </si>
+  <si>
+    <t>İnsan Kaynakları</t>
+  </si>
+  <si>
+    <t>tugce.tek@barcin.com</t>
+  </si>
+  <si>
+    <t>Aydın Ziya Mete</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Web Müdürü</t>
+  </si>
+  <si>
+    <t>aydinziya.mete@barcin.com</t>
   </si>
 </sst>
 </file>
@@ -419,17 +467,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -450,7 +498,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -461,16 +509,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -478,16 +526,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -498,16 +546,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4">
         <v>10000</v>
@@ -518,18 +566,118 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10">
         <v>1000</v>
       </c>
     </row>
@@ -539,6 +687,11 @@
     <hyperlink ref="E3" r:id="rId2" xr:uid="{A3ED449A-6FDE-4F22-BC95-9851D157E04A}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{791CA140-AD9F-432D-B6A2-D34A73BCCFE6}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{0E1A2277-10C3-4857-935E-E864A74626FA}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{50B0E030-91AF-4A25-B79D-5D86433118FF}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{41D14D4C-AC5C-4E84-90CB-87476FD43B43}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{C0B4FBE8-0776-4110-9FF6-83B40EC688B9}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{87C48B92-AC0C-4261-AA9B-0592724D70B8}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{7752883F-FC4D-4681-811E-FAB8C759348E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
